--- a/UpdateCRUD.xlsx
+++ b/UpdateCRUD.xlsx
@@ -2,26 +2,44 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\Desktop\Università\Tirocinio-Unibo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA47FB03-173A-40C4-9285-7ABE7C2C1DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122C8FD0-20FA-4306-A9F5-236C4CAF7773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio1" sheetId="2" r:id="rId2"/>
+    <sheet name="Foglio5" sheetId="6" r:id="rId3"/>
+    <sheet name="Foglio2" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId5"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="29">
   <si>
     <t>A</t>
   </si>
@@ -82,6 +100,33 @@
   <si>
     <t>referencing_B_in_A</t>
   </si>
+  <si>
+    <t>CouchDB</t>
+  </si>
+  <si>
+    <t>MongoDB</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Etichette di riga</t>
+  </si>
+  <si>
+    <t>Totale complessivo</t>
+  </si>
+  <si>
+    <t>Somma di embedding_A_in_B</t>
+  </si>
+  <si>
+    <t>Etichette di colonna</t>
+  </si>
 </sst>
 </file>
 
@@ -132,10 +177,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -151,6 +202,2684 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[UpdateCRUD.xlsx]Foglio5!Tabella pivot3</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.2034546566634922E-2"/>
+          <c:y val="5.8952064825457534E-2"/>
+          <c:w val="0.86349437515000893"/>
+          <c:h val="0.87127864132945188"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio5!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CouchDB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio5!$A$5:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>A0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>A3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>A4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>A5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>A6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>B0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>B1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>B2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>B3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>B4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>B5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>B6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio5!$B$5:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>32255.172729492188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23268.461227416989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27286.76795959473</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23239.374160766602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22267.818450927731</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24426.937103271481</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22170.543670654301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.0783596038818</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.553009033203121</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.23748779296875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.240629196166992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32.590866088867188</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.404567718505859</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27.779817581176761</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FAC1-4F01-AE9D-4DB5404C7CE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio5!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MongoDB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio5!$A$5:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>A0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>A3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>A4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>A5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>A6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>B0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>B1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>B2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>B3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>B4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>B5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>B6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio5!$C$5:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FAC1-4F01-AE9D-4DB5404C7CE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio5!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Oracle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio5!$A$5:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>A0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>A3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>A4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>A5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>A6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>B0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>B1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>B2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>B3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>B4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>B5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>B6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio5!$D$5:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3673</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2079</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FAC1-4F01-AE9D-4DB5404C7CE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="617337183"/>
+        <c:axId val="617325951"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="617337183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617325951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="617325951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1400"/>
+                  <a:t>time in millisec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.0836410935358746E-2"/>
+              <c:y val="0.45357137997586588"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617337183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77EC4653-3C48-FED8-4091-75DC88223E0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Matteo Santoro" refreshedDate="44822.787613078704" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="42" xr:uid="{D309C45A-5E70-49F6-95AA-6F1AF99FBB15}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F43" sheet="Foglio2"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Source" numFmtId="0">
+      <sharedItems count="3">
+        <s v="CouchDB"/>
+        <s v="MongoDB"/>
+        <s v="Oracle"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Query" numFmtId="0">
+      <sharedItems count="14">
+        <s v="A0"/>
+        <s v="A1"/>
+        <s v="A2"/>
+        <s v="A3"/>
+        <s v="A4"/>
+        <s v="A5"/>
+        <s v="A6"/>
+        <s v="B0"/>
+        <s v="B1"/>
+        <s v="B2"/>
+        <s v="B3"/>
+        <s v="B4"/>
+        <s v="B5"/>
+        <s v="B6"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="embedding_A_in_B" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="32255.172729492188"/>
+    </cacheField>
+    <cacheField name="embedding_B_in_A" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="25663.614273071289" count="32">
+        <n v="34.078359603881843"/>
+        <n v="22.118806838989261"/>
+        <n v="22.932767868041989"/>
+        <n v="24.72376823425293"/>
+        <n v="24.672746658325199"/>
+        <n v="23.99754524230957"/>
+        <n v="26.124477386474609"/>
+        <n v="25272.13096618652"/>
+        <n v="23547.649383544918"/>
+        <n v="23000.955581665039"/>
+        <n v="21637.91656494141"/>
+        <n v="25663.614273071289"/>
+        <n v="23455.619812011719"/>
+        <n v="24750.70953369141"/>
+        <n v="61"/>
+        <n v="54"/>
+        <n v="2"/>
+        <n v="0"/>
+        <n v="1"/>
+        <n v="22"/>
+        <n v="30"/>
+        <n v="23"/>
+        <n v="218"/>
+        <n v="3"/>
+        <n v="220"/>
+        <n v="5"/>
+        <n v="3673"/>
+        <n v="660"/>
+        <n v="2079"/>
+        <n v="9"/>
+        <n v="16"/>
+        <n v="2864"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="referencing_A_in_B" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="3673"/>
+    </cacheField>
+    <cacheField name="referencing_B_in_A" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="3673"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="42">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32255.172729492188"/>
+    <x v="0"/>
+    <n v="38.068532943725593"/>
+    <n v="34.000635147094727"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="23268.461227416989"/>
+    <x v="1"/>
+    <n v="21.514654159545898"/>
+    <n v="22.753000259399411"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="27286.76795959473"/>
+    <x v="2"/>
+    <n v="25.630950927734379"/>
+    <n v="23.122549057006839"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="23239.374160766602"/>
+    <x v="3"/>
+    <n v="22.060871124267582"/>
+    <n v="20.371913909912109"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="22267.818450927731"/>
+    <x v="4"/>
+    <n v="25.595188140869141"/>
+    <n v="21.43502235412598"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="24426.937103271481"/>
+    <x v="5"/>
+    <n v="23.955106735229489"/>
+    <n v="21.999359130859379"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="22170.543670654301"/>
+    <x v="6"/>
+    <n v="24.132013320922852"/>
+    <n v="26.650190353393551"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="52.0783596038818"/>
+    <x v="7"/>
+    <n v="31.667232513427727"/>
+    <n v="41.946172714233398"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="28.553009033203121"/>
+    <x v="8"/>
+    <n v="24.697065353393551"/>
+    <n v="35.084009170532227"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="26.23748779296875"/>
+    <x v="9"/>
+    <n v="37.052392959594727"/>
+    <n v="23.417472839355469"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <n v="32.240629196166992"/>
+    <x v="10"/>
+    <n v="23.683071136474609"/>
+    <n v="23.530960083007809"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <n v="32.590866088867188"/>
+    <x v="11"/>
+    <n v="24.829864501953121"/>
+    <n v="24.071931838989261"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="30.404567718505859"/>
+    <x v="12"/>
+    <n v="23.473739624023441"/>
+    <n v="23.31089973449707"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <n v="27.779817581176761"/>
+    <x v="13"/>
+    <n v="23.78439903259277"/>
+    <n v="23.566961288452148"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="14"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="190"/>
+    <x v="15"/>
+    <n v="15"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="3"/>
+    <x v="16"/>
+    <n v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="0"/>
+    <x v="17"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="1"/>
+    <x v="17"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="0"/>
+    <x v="18"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="1"/>
+    <x v="17"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="4"/>
+    <x v="16"/>
+    <n v="0"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="174"/>
+    <x v="19"/>
+    <n v="43"/>
+    <n v="114"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="0"/>
+    <x v="17"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="0"/>
+    <x v="17"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="1"/>
+    <x v="17"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <n v="0"/>
+    <x v="17"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="0"/>
+    <x v="17"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="16"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="30"/>
+    <x v="20"/>
+    <n v="30"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="23"/>
+    <x v="21"/>
+    <n v="23"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="218"/>
+    <x v="22"/>
+    <n v="218"/>
+    <n v="218"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1"/>
+    <x v="18"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="3"/>
+    <x v="23"/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="220"/>
+    <x v="24"/>
+    <n v="220"/>
+    <n v="220"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="5"/>
+    <x v="25"/>
+    <n v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="3673"/>
+    <x v="26"/>
+    <n v="3673"/>
+    <n v="3673"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="660"/>
+    <x v="27"/>
+    <n v="660"/>
+    <n v="660"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="10"/>
+    <n v="2079"/>
+    <x v="28"/>
+    <n v="2079"/>
+    <n v="2079"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="9"/>
+    <x v="29"/>
+    <n v="9"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="12"/>
+    <n v="16"/>
+    <x v="30"/>
+    <n v="16"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <n v="2864"/>
+    <x v="31"/>
+    <n v="2864"/>
+    <n v="2864"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB2E6773-B3C1-4C53-AE53-5EC8366EE674}" name="Tabella pivot3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:E19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="33">
+        <item x="17"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="23"/>
+        <item x="25"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="19"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="21"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="20"/>
+        <item x="0"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="22"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="26"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item x="8"/>
+        <item x="13"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Somma di embedding_A_in_B" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -609,10 +3338,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F187BB-A4B5-467E-8383-EE724B41DEF4}">
-  <dimension ref="B3:T17"/>
+  <dimension ref="B3:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,159 +3678,62 @@
         <v>2.3566961288452148E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>190</v>
-      </c>
-      <c r="E14">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>845</v>
-      </c>
-      <c r="K14">
-        <v>174</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <v>61</v>
-      </c>
-      <c r="D15">
-        <v>54</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <v>22</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
+      <c r="E16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>43</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1110,31 +3742,1578 @@
         <v>1</v>
       </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
       <c r="J17">
-        <v>761</v>
+        <v>4</v>
       </c>
       <c r="K17">
+        <v>174</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>61</v>
+      </c>
+      <c r="D18">
+        <v>54</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>22</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>43</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>12</v>
+      </c>
+      <c r="K20">
         <v>114</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
         <v>4</v>
       </c>
-      <c r="O17">
+      <c r="O20">
         <v>1</v>
       </c>
-      <c r="P17">
-        <v>0</v>
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46FFD4A-8BEA-435C-8FDC-957A440AC195}">
+  <dimension ref="A3:E19"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="34" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>32255.172729492188</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>32258.172729492188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>23268.461227416989</v>
+      </c>
+      <c r="C6" s="5">
+        <v>190</v>
+      </c>
+      <c r="D6" s="5">
+        <v>30</v>
+      </c>
+      <c r="E6" s="5">
+        <v>23488.461227416989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
+        <v>27286.76795959473</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5">
+        <v>27312.76795959473</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
+        <v>23239.374160766602</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>218</v>
+      </c>
+      <c r="E8" s="5">
+        <v>23457.374160766602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5">
+        <v>22267.818450927731</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>22269.818450927731</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5">
+        <v>24426.937103271481</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5">
+        <v>24429.937103271481</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5">
+        <v>22170.543670654301</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>220</v>
+      </c>
+      <c r="E11" s="5">
+        <v>22391.543670654301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5">
+        <v>52.0783596038818</v>
+      </c>
+      <c r="C12" s="5">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5">
+        <v>5</v>
+      </c>
+      <c r="E12" s="5">
+        <v>61.0783596038818</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5">
+        <v>28.553009033203121</v>
+      </c>
+      <c r="C13" s="5">
+        <v>174</v>
+      </c>
+      <c r="D13" s="5">
+        <v>3673</v>
+      </c>
+      <c r="E13" s="5">
+        <v>3875.5530090332031</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5">
+        <v>26.23748779296875</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>660</v>
+      </c>
+      <c r="E14" s="5">
+        <v>686.23748779296875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5">
+        <v>32.240629196166992</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2079</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2111.240629196167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5">
+        <v>32.590866088867188</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>9</v>
+      </c>
+      <c r="E16" s="5">
+        <v>42.590866088867188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5">
+        <v>30.404567718505859</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>16</v>
+      </c>
+      <c r="E17" s="5">
+        <v>46.404567718505859</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5">
+        <v>27.779817581176761</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2864</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2891.7798175811768</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="5">
+        <v>175144.96003913879</v>
+      </c>
+      <c r="C19" s="5">
+        <v>375</v>
+      </c>
+      <c r="D19" s="5">
+        <v>9803</v>
+      </c>
+      <c r="E19" s="5">
+        <v>185322.96003913879</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E5CAD5-E333-470D-981E-EED9FDAFFE9A}">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F43" sqref="A1:F43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6">
+        <f>J2 * 1000</f>
+        <v>32255.172729492188</v>
+      </c>
+      <c r="D2" s="6">
+        <f t="shared" ref="D2:F2" si="0">K2 * 1000</f>
+        <v>34.078359603881843</v>
+      </c>
+      <c r="E2" s="6">
+        <f t="shared" si="0"/>
+        <v>38.068532943725593</v>
+      </c>
+      <c r="F2" s="6">
+        <f t="shared" si="0"/>
+        <v>34.000635147094727</v>
+      </c>
+      <c r="J2">
+        <v>32.255172729492188</v>
+      </c>
+      <c r="K2">
+        <v>3.4078359603881843E-2</v>
+      </c>
+      <c r="L2">
+        <v>3.8068532943725593E-2</v>
+      </c>
+      <c r="M2">
+        <v>3.4000635147094727E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:C15" si="1">J3 * 1000</f>
+        <v>23268.461227416989</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" ref="D3:D15" si="2">K3 * 1000</f>
+        <v>22.118806838989261</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:E15" si="3">L3 * 1000</f>
+        <v>21.514654159545898</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" ref="F3:F15" si="4">M3 * 1000</f>
+        <v>22.753000259399411</v>
+      </c>
+      <c r="J3">
+        <v>23.268461227416989</v>
+      </c>
+      <c r="K3">
+        <v>2.2118806838989261E-2</v>
+      </c>
+      <c r="L3">
+        <v>2.1514654159545898E-2</v>
+      </c>
+      <c r="M3">
+        <v>2.2753000259399411E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" si="1"/>
+        <v>27286.76795959473</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" si="2"/>
+        <v>22.932767868041989</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="3"/>
+        <v>25.630950927734379</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" si="4"/>
+        <v>23.122549057006839</v>
+      </c>
+      <c r="J4">
+        <v>27.28676795959473</v>
+      </c>
+      <c r="K4">
+        <v>2.2932767868041989E-2</v>
+      </c>
+      <c r="L4">
+        <v>2.5630950927734378E-2</v>
+      </c>
+      <c r="M4">
+        <v>2.3122549057006839E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="1"/>
+        <v>23239.374160766602</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="2"/>
+        <v>24.72376823425293</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="3"/>
+        <v>22.060871124267582</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="4"/>
+        <v>20.371913909912109</v>
+      </c>
+      <c r="J5">
+        <v>23.239374160766602</v>
+      </c>
+      <c r="K5">
+        <v>2.472376823425293E-2</v>
+      </c>
+      <c r="L5">
+        <v>2.2060871124267582E-2</v>
+      </c>
+      <c r="M5">
+        <v>2.0371913909912109E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="1"/>
+        <v>22267.818450927731</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="2"/>
+        <v>24.672746658325199</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="3"/>
+        <v>25.595188140869141</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="4"/>
+        <v>21.43502235412598</v>
+      </c>
+      <c r="J6">
+        <v>22.267818450927731</v>
+      </c>
+      <c r="K6">
+        <v>2.4672746658325199E-2</v>
+      </c>
+      <c r="L6">
+        <v>2.5595188140869141E-2</v>
+      </c>
+      <c r="M6">
+        <v>2.143502235412598E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="1"/>
+        <v>24426.937103271481</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="2"/>
+        <v>23.99754524230957</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="3"/>
+        <v>23.955106735229489</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="4"/>
+        <v>21.999359130859379</v>
+      </c>
+      <c r="J7">
+        <v>24.426937103271481</v>
+      </c>
+      <c r="K7">
+        <v>2.399754524230957E-2</v>
+      </c>
+      <c r="L7">
+        <v>2.3955106735229489E-2</v>
+      </c>
+      <c r="M7">
+        <v>2.1999359130859378E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="1"/>
+        <v>22170.543670654301</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="2"/>
+        <v>26.124477386474609</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="3"/>
+        <v>24.132013320922852</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="4"/>
+        <v>26.650190353393551</v>
+      </c>
+      <c r="J8">
+        <v>22.1705436706543</v>
+      </c>
+      <c r="K8">
+        <v>2.6124477386474609E-2</v>
+      </c>
+      <c r="L8">
+        <v>2.4132013320922852E-2</v>
+      </c>
+      <c r="M8">
+        <v>2.6650190353393551E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="1"/>
+        <v>52.0783596038818</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="2"/>
+        <v>25272.13096618652</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="3"/>
+        <v>31.667232513427727</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="4"/>
+        <v>41.946172714233398</v>
+      </c>
+      <c r="J9">
+        <v>5.2078359603881803E-2</v>
+      </c>
+      <c r="K9">
+        <v>25.27213096618652</v>
+      </c>
+      <c r="L9">
+        <v>3.1667232513427727E-2</v>
+      </c>
+      <c r="M9">
+        <v>4.1946172714233398E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="1"/>
+        <v>28.553009033203121</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="2"/>
+        <v>23547.649383544918</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="3"/>
+        <v>24.697065353393551</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="4"/>
+        <v>35.084009170532227</v>
+      </c>
+      <c r="J10">
+        <v>2.8553009033203122E-2</v>
+      </c>
+      <c r="K10">
+        <v>23.547649383544918</v>
+      </c>
+      <c r="L10">
+        <v>2.4697065353393551E-2</v>
+      </c>
+      <c r="M10">
+        <v>3.5084009170532227E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="1"/>
+        <v>26.23748779296875</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="2"/>
+        <v>23000.955581665039</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="3"/>
+        <v>37.052392959594727</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="4"/>
+        <v>23.417472839355469</v>
+      </c>
+      <c r="J11">
+        <v>2.623748779296875E-2</v>
+      </c>
+      <c r="K11">
+        <v>23.000955581665039</v>
+      </c>
+      <c r="L11">
+        <v>3.7052392959594727E-2</v>
+      </c>
+      <c r="M11">
+        <v>2.3417472839355469E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" si="1"/>
+        <v>32.240629196166992</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="2"/>
+        <v>21637.91656494141</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="3"/>
+        <v>23.683071136474609</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="4"/>
+        <v>23.530960083007809</v>
+      </c>
+      <c r="J12">
+        <v>3.2240629196166992E-2</v>
+      </c>
+      <c r="K12">
+        <v>21.63791656494141</v>
+      </c>
+      <c r="L12">
+        <v>2.3683071136474609E-2</v>
+      </c>
+      <c r="M12">
+        <v>2.3530960083007809E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" si="1"/>
+        <v>32.590866088867188</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="2"/>
+        <v>25663.614273071289</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="3"/>
+        <v>24.829864501953121</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="4"/>
+        <v>24.071931838989261</v>
+      </c>
+      <c r="J13">
+        <v>3.2590866088867188E-2</v>
+      </c>
+      <c r="K13">
+        <v>25.663614273071289</v>
+      </c>
+      <c r="L13">
+        <v>2.4829864501953122E-2</v>
+      </c>
+      <c r="M13">
+        <v>2.4071931838989261E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" si="1"/>
+        <v>30.404567718505859</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="2"/>
+        <v>23455.619812011719</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="3"/>
+        <v>23.473739624023441</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="4"/>
+        <v>23.31089973449707</v>
+      </c>
+      <c r="J14">
+        <v>3.0404567718505859E-2</v>
+      </c>
+      <c r="K14">
+        <v>23.455619812011719</v>
+      </c>
+      <c r="L14">
+        <v>2.3473739624023441E-2</v>
+      </c>
+      <c r="M14">
+        <v>2.331089973449707E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" si="1"/>
+        <v>27.779817581176761</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="2"/>
+        <v>24750.70953369141</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="3"/>
+        <v>23.78439903259277</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="4"/>
+        <v>23.566961288452148</v>
+      </c>
+      <c r="J15">
+        <v>2.7779817581176761E-2</v>
+      </c>
+      <c r="K15">
+        <v>24.75070953369141</v>
+      </c>
+      <c r="L15">
+        <v>2.378439903259277E-2</v>
+      </c>
+      <c r="M15">
+        <v>2.3566961288452148E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>61</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>190</v>
+      </c>
+      <c r="D17">
+        <v>54</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>174</v>
+      </c>
+      <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>43</v>
+      </c>
+      <c r="F24">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>23</v>
+      </c>
+      <c r="D32">
+        <v>23</v>
+      </c>
+      <c r="E32">
+        <v>23</v>
+      </c>
+      <c r="F32">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>218</v>
+      </c>
+      <c r="D33">
+        <v>218</v>
+      </c>
+      <c r="E33">
+        <v>218</v>
+      </c>
+      <c r="F33">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>220</v>
+      </c>
+      <c r="D36">
+        <v>220</v>
+      </c>
+      <c r="E36">
+        <v>220</v>
+      </c>
+      <c r="F36">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>3673</v>
+      </c>
+      <c r="D38">
+        <v>3673</v>
+      </c>
+      <c r="E38">
+        <v>3673</v>
+      </c>
+      <c r="F38">
+        <v>3673</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>660</v>
+      </c>
+      <c r="D39">
+        <v>660</v>
+      </c>
+      <c r="E39">
+        <v>660</v>
+      </c>
+      <c r="F39">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>2079</v>
+      </c>
+      <c r="D40">
+        <v>2079</v>
+      </c>
+      <c r="E40">
+        <v>2079</v>
+      </c>
+      <c r="F40">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41">
+        <v>9</v>
+      </c>
+      <c r="D41">
+        <v>9</v>
+      </c>
+      <c r="E41">
+        <v>9</v>
+      </c>
+      <c r="F41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42">
+        <v>16</v>
+      </c>
+      <c r="D42">
+        <v>16</v>
+      </c>
+      <c r="E42">
+        <v>16</v>
+      </c>
+      <c r="F42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43">
+        <v>2864</v>
+      </c>
+      <c r="D43">
+        <v>2864</v>
+      </c>
+      <c r="E43">
+        <v>2864</v>
+      </c>
+      <c r="F43">
+        <v>2864</v>
       </c>
     </row>
   </sheetData>
